--- a/artfynd/A 65332-2020.xlsx
+++ b/artfynd/A 65332-2020.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95524725</v>
+        <v>95525723</v>
       </c>
       <c r="B5" t="n">
-        <v>101680</v>
+        <v>81236</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,38 +1028,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222412</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>731344.4368176023</v>
+        <v>731041.6813701726</v>
       </c>
       <c r="R5" t="n">
-        <v>7377185.839129029</v>
+        <v>7377486.730515879</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95525723</v>
+        <v>95525704</v>
       </c>
       <c r="B6" t="n">
-        <v>81236</v>
+        <v>78098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>731041.6813701726</v>
+        <v>731096.946238292</v>
       </c>
       <c r="R6" t="n">
-        <v>7377486.730515879</v>
+        <v>7377383.576149886</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95526554</v>
+        <v>95525702</v>
       </c>
       <c r="B7" t="n">
-        <v>73693</v>
+        <v>78098</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,34 +1256,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6440</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>731141.8978569109</v>
+        <v>731101.9102677843</v>
       </c>
       <c r="R7" t="n">
-        <v>7377317.355333193</v>
+        <v>7377386.803336137</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1340,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95526596</v>
+        <v>95525708</v>
       </c>
       <c r="B8" t="n">
-        <v>76909</v>
+        <v>95525</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,38 +1364,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6437</v>
+        <v>221941</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>731095.6331657044</v>
+        <v>731058.9057262606</v>
       </c>
       <c r="R8" t="n">
-        <v>7377331.601008137</v>
+        <v>7377381.217323492</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1452,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95525704</v>
+        <v>95524692</v>
       </c>
       <c r="B9" t="n">
-        <v>78098</v>
+        <v>73693</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,34 +1480,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>731096.946238292</v>
+        <v>731082.8426214914</v>
       </c>
       <c r="R9" t="n">
-        <v>7377383.576149886</v>
+        <v>7377456.381089067</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95524724</v>
+        <v>95525709</v>
       </c>
       <c r="B10" t="n">
-        <v>101680</v>
+        <v>95525</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222412</v>
+        <v>221941</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1612,14 +1612,14 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>731286.1589549112</v>
+        <v>731057.8725300441</v>
       </c>
       <c r="R10" t="n">
-        <v>7377117.055652067</v>
+        <v>7377379.121136602</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1676,19 +1676,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95524697</v>
+        <v>95524693</v>
       </c>
       <c r="B11" t="n">
         <v>73693</v>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>731346.5285797676</v>
+        <v>731072.7846200749</v>
       </c>
       <c r="R11" t="n">
-        <v>7377329.958726601</v>
+        <v>7377461.173428355</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>95524783</v>
+        <v>95525710</v>
       </c>
       <c r="B12" t="n">
         <v>95525</v>
@@ -1836,14 +1836,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>731310.4877543944</v>
+        <v>731071.2282080103</v>
       </c>
       <c r="R12" t="n">
-        <v>7377337.412717641</v>
+        <v>7377373.396560187</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1900,22 +1900,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>95525702</v>
+        <v>95526546</v>
       </c>
       <c r="B13" t="n">
-        <v>78098</v>
+        <v>73693</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,34 +1928,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>731101.9102677843</v>
+        <v>731083.746861183</v>
       </c>
       <c r="R13" t="n">
-        <v>7377386.803336137</v>
+        <v>7377474.548348676</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2012,22 +2012,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95525739</v>
+        <v>95521893</v>
       </c>
       <c r="B14" t="n">
-        <v>77177</v>
+        <v>76909</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>6437</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>731256.93553675</v>
+        <v>731105.0723229445</v>
       </c>
       <c r="R14" t="n">
-        <v>7377390.853555483</v>
+        <v>7377377.818937358</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2124,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Espen Quinto-Ashman</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95525731</v>
+        <v>95525707</v>
       </c>
       <c r="B15" t="n">
-        <v>73693</v>
+        <v>95525</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>221941</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>731362.51884524</v>
+        <v>731068.8657165424</v>
       </c>
       <c r="R15" t="n">
-        <v>7377336.114688792</v>
+        <v>7377382.447470394</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>95524953</v>
+        <v>95526566</v>
       </c>
       <c r="B16" t="n">
-        <v>76909</v>
+        <v>77588</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,34 +2264,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6437</v>
+        <v>864</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>731302.5566876943</v>
+        <v>731105.0736012852</v>
       </c>
       <c r="R16" t="n">
-        <v>7377321.473934527</v>
+        <v>7377382.643747968</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2342,29 +2342,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95525708</v>
+        <v>95521892</v>
       </c>
       <c r="B17" t="n">
-        <v>95525</v>
+        <v>76909</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2373,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221941</v>
+        <v>6437</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2401,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>731058.9057262606</v>
+        <v>731095.7841368329</v>
       </c>
       <c r="R17" t="n">
-        <v>7377381.217323492</v>
+        <v>7377397.551511872</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2461,22 +2460,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Espen Quinto-Ashman</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>95524692</v>
+        <v>95525722</v>
       </c>
       <c r="B18" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2489,34 +2488,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>731082.8426214914</v>
+        <v>731076.979669224</v>
       </c>
       <c r="R18" t="n">
-        <v>7377456.381089067</v>
+        <v>7377454.285395269</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2573,22 +2572,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>95524759</v>
+        <v>95526588</v>
       </c>
       <c r="B19" t="n">
-        <v>78503</v>
+        <v>81236</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2597,38 +2596,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6456</v>
+        <v>1312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>731347.0751603107</v>
+        <v>731073.8536034208</v>
       </c>
       <c r="R19" t="n">
-        <v>7377221.844749237</v>
+        <v>7377472.519587825</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2655,7 +2657,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2665,7 +2667,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2679,28 +2681,29 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95524878</v>
+        <v>95525701</v>
       </c>
       <c r="B20" t="n">
-        <v>77588</v>
+        <v>89557</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2713,34 +2716,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>864</v>
+        <v>1588</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>731240.8114848726</v>
+        <v>731129.1372095407</v>
       </c>
       <c r="R20" t="n">
-        <v>7377381.470669083</v>
+        <v>7377436.912044343</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2767,7 +2770,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2777,7 +2780,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2797,22 +2800,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>95525714</v>
+        <v>95521891</v>
       </c>
       <c r="B21" t="n">
-        <v>95525</v>
+        <v>76486</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2821,38 +2824,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221941</v>
+        <v>6487</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>731066.391522916</v>
+        <v>731095.7841368329</v>
       </c>
       <c r="R21" t="n">
-        <v>7377349.272860094</v>
+        <v>7377397.551511872</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2903,28 +2909,29 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Espen Quinto-Ashman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>95525736</v>
+        <v>96965438</v>
       </c>
       <c r="B22" t="n">
-        <v>81236</v>
+        <v>76486</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2937,37 +2944,40 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1312</v>
+        <v>6487</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Lu lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>731337.975879339</v>
+        <v>731075.7633380449</v>
       </c>
       <c r="R22" t="n">
-        <v>7377374.68057525</v>
+        <v>7377391.46416633</v>
       </c>
       <c r="S22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2991,7 +3001,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3001,7 +3011,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3015,25 +3025,26 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Tore Dahlberg, Iris Elmér, Linnea Backman, Astrid Eklund, Frank Pollari-Karlsson, Amanda Helander, Espen Quinto-Ashman, Elin Lönnberg, Flynn Smedman, Ida Aronsen, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95526580</v>
+        <v>95524912</v>
       </c>
       <c r="B23" t="n">
         <v>81236</v>
@@ -3069,14 +3080,14 @@
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>731136.5032587848</v>
+        <v>731153.3029610582</v>
       </c>
       <c r="R23" t="n">
-        <v>7377324.14390795</v>
+        <v>7377504.455598107</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3133,22 +3144,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>95526578</v>
+        <v>95526594</v>
       </c>
       <c r="B24" t="n">
-        <v>81236</v>
+        <v>76909</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3161,21 +3172,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>6437</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3185,10 +3196,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>731121.4856103716</v>
+        <v>731161.0174826731</v>
       </c>
       <c r="R24" t="n">
-        <v>7377345.008609556</v>
+        <v>7377450.418991529</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3257,10 +3268,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>95526584</v>
+        <v>95526548</v>
       </c>
       <c r="B25" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3273,21 +3284,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3297,10 +3308,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>731081.5441688144</v>
+        <v>731099.9728887338</v>
       </c>
       <c r="R25" t="n">
-        <v>7377336.460497634</v>
+        <v>7377366.539279395</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3369,10 +3380,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>95524848</v>
+        <v>95526589</v>
       </c>
       <c r="B26" t="n">
-        <v>77588</v>
+        <v>76486</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3385,34 +3396,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>864</v>
+        <v>6487</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>731306.8196960544</v>
+        <v>731162.2166363262</v>
       </c>
       <c r="R26" t="n">
-        <v>7377149.334471703</v>
+        <v>7377450.518736145</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3439,7 +3453,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3449,7 +3463,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3463,28 +3477,29 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>95525709</v>
+        <v>95526554</v>
       </c>
       <c r="B27" t="n">
-        <v>95525</v>
+        <v>73693</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3493,38 +3508,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>731057.8725300441</v>
+        <v>731141.8978569109</v>
       </c>
       <c r="R27" t="n">
-        <v>7377379.121136602</v>
+        <v>7377317.355333193</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3581,22 +3596,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>95525712</v>
+        <v>95524697</v>
       </c>
       <c r="B28" t="n">
-        <v>95525</v>
+        <v>73693</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3605,38 +3620,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>731069.2905901837</v>
+        <v>731346.5285797676</v>
       </c>
       <c r="R28" t="n">
-        <v>7377353.132450734</v>
+        <v>7377329.958726601</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3663,7 +3678,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3673,7 +3688,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3693,19 +3708,19 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>95524780</v>
+        <v>95524783</v>
       </c>
       <c r="B29" t="n">
         <v>95525</v>
@@ -3745,10 +3760,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>731254.800941787</v>
+        <v>731310.4877543944</v>
       </c>
       <c r="R29" t="n">
-        <v>7377377.809948722</v>
+        <v>7377337.412717641</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3817,10 +3832,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>95524693</v>
+        <v>95525739</v>
       </c>
       <c r="B30" t="n">
-        <v>73693</v>
+        <v>77177</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3833,34 +3848,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>353</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>731072.7846200749</v>
+        <v>731256.93553675</v>
       </c>
       <c r="R30" t="n">
-        <v>7377461.173428355</v>
+        <v>7377390.853555483</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3887,7 +3902,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3897,7 +3912,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3917,19 +3932,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>95525700</v>
+        <v>95525731</v>
       </c>
       <c r="B31" t="n">
         <v>73693</v>
@@ -3969,10 +3984,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>731137.4858902898</v>
+        <v>731362.51884524</v>
       </c>
       <c r="R31" t="n">
-        <v>7377259.089945626</v>
+        <v>7377336.114688792</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3999,7 +4014,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4009,7 +4024,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4041,10 +4056,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>95525710</v>
+        <v>95524953</v>
       </c>
       <c r="B32" t="n">
-        <v>95525</v>
+        <v>76909</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4053,38 +4068,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221941</v>
+        <v>6437</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>731071.2282080103</v>
+        <v>731302.5566876943</v>
       </c>
       <c r="R32" t="n">
-        <v>7377373.396560187</v>
+        <v>7377321.473934527</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4111,7 +4126,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4121,7 +4136,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4135,28 +4150,29 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>95526545</v>
+        <v>95524878</v>
       </c>
       <c r="B33" t="n">
-        <v>76504</v>
+        <v>77588</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4169,34 +4185,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>314</v>
+        <v>864</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>731142.9261198903</v>
+        <v>731240.8114848726</v>
       </c>
       <c r="R33" t="n">
-        <v>7377300.151848644</v>
+        <v>7377381.470669083</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4223,7 +4239,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4233,7 +4249,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4253,22 +4269,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95526546</v>
+        <v>95525736</v>
       </c>
       <c r="B34" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4281,34 +4297,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>731083.746861183</v>
+        <v>731337.975879339</v>
       </c>
       <c r="R34" t="n">
-        <v>7377474.548348676</v>
+        <v>7377374.68057525</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4335,7 +4351,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4345,7 +4361,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4365,22 +4381,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>95526568</v>
+        <v>95526580</v>
       </c>
       <c r="B35" t="n">
-        <v>77588</v>
+        <v>81236</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4393,21 +4409,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4417,10 +4433,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>731081.3781656381</v>
+        <v>731136.5032587848</v>
       </c>
       <c r="R35" t="n">
-        <v>7377338.457015837</v>
+        <v>7377324.14390795</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4489,10 +4505,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>95526604</v>
+        <v>95524780</v>
       </c>
       <c r="B36" t="n">
-        <v>73693</v>
+        <v>95525</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4501,38 +4517,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6440</v>
+        <v>221941</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>731334.2094745624</v>
+        <v>731254.800941787</v>
       </c>
       <c r="R36" t="n">
-        <v>7377361.90300436</v>
+        <v>7377377.809948722</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4589,22 +4605,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>95521893</v>
+        <v>95525700</v>
       </c>
       <c r="B37" t="n">
-        <v>76909</v>
+        <v>73693</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4617,21 +4633,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6437</v>
+        <v>6440</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4641,10 +4657,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>731105.0723229445</v>
+        <v>731137.4858902898</v>
       </c>
       <c r="R37" t="n">
-        <v>7377377.818937358</v>
+        <v>7377259.089945626</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4701,19 +4717,19 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>95525728</v>
+        <v>95526545</v>
       </c>
       <c r="B38" t="n">
         <v>76504</v>
@@ -4749,14 +4765,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>731309.5573388296</v>
+        <v>731142.9261198903</v>
       </c>
       <c r="R38" t="n">
-        <v>7377179.317308596</v>
+        <v>7377300.151848644</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4783,7 +4799,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4793,7 +4809,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4813,19 +4829,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>95525730</v>
+        <v>95526604</v>
       </c>
       <c r="B39" t="n">
         <v>73693</v>
@@ -4861,14 +4877,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>731263.7963400804</v>
+        <v>731334.2094745624</v>
       </c>
       <c r="R39" t="n">
-        <v>7377385.795597434</v>
+        <v>7377361.90300436</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -4925,22 +4941,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>95525732</v>
+        <v>95525730</v>
       </c>
       <c r="B40" t="n">
-        <v>95525</v>
+        <v>73693</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4949,25 +4965,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4977,10 +4993,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>731257.7672022315</v>
+        <v>731263.7963400804</v>
       </c>
       <c r="R40" t="n">
-        <v>7377385.69595964</v>
+        <v>7377385.795597434</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5049,10 +5065,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>95524912</v>
+        <v>95525732</v>
       </c>
       <c r="B41" t="n">
-        <v>81236</v>
+        <v>95525</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5061,38 +5077,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>731153.3029610582</v>
+        <v>731257.7672022315</v>
       </c>
       <c r="R41" t="n">
-        <v>7377504.455598107</v>
+        <v>7377385.69595964</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5119,7 +5135,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5129,7 +5145,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5149,12 +5165,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5273,10 +5289,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>95526601</v>
+        <v>95526611</v>
       </c>
       <c r="B43" t="n">
-        <v>76504</v>
+        <v>81236</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5289,21 +5305,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>314</v>
+        <v>1312</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5313,10 +5329,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>731318.6815007103</v>
+        <v>731306.7323874033</v>
       </c>
       <c r="R43" t="n">
-        <v>7377161.580336118</v>
+        <v>7377382.533721442</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5385,10 +5401,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>95526611</v>
+        <v>95526602</v>
       </c>
       <c r="B44" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5401,21 +5417,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5425,10 +5441,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>731306.7323874033</v>
+        <v>731263.063338915</v>
       </c>
       <c r="R44" t="n">
-        <v>7377382.533721442</v>
+        <v>7377384.930477669</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5497,7 +5513,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>95526602</v>
+        <v>95526559</v>
       </c>
       <c r="B45" t="n">
         <v>73693</v>
@@ -5537,10 +5553,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>731263.063338915</v>
+        <v>731141.4169256137</v>
       </c>
       <c r="R45" t="n">
-        <v>7377384.930477669</v>
+        <v>7377260.22102132</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5567,7 +5583,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5577,7 +5593,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5609,10 +5625,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>95526559</v>
+        <v>95524743</v>
       </c>
       <c r="B46" t="n">
-        <v>73693</v>
+        <v>56411</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5625,34 +5641,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6440</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>731141.4169256137</v>
+        <v>731304.4383812491</v>
       </c>
       <c r="R46" t="n">
-        <v>7377260.22102132</v>
+        <v>7377405.260327277</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5709,22 +5730,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>95525733</v>
+        <v>95526573</v>
       </c>
       <c r="B47" t="n">
-        <v>56542</v>
+        <v>77506</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5737,34 +5758,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>103022</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lappmes</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Poecile cinctus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Boddaert, 1783)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>731305.526533796</v>
+        <v>731136.5032587848</v>
       </c>
       <c r="R47" t="n">
-        <v>7377179.383949534</v>
+        <v>7377324.14390795</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5791,7 +5812,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5801,7 +5822,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5821,22 +5842,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>95525707</v>
+        <v>95526586</v>
       </c>
       <c r="B48" t="n">
-        <v>95525</v>
+        <v>81236</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5845,38 +5866,38 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221941</v>
+        <v>1312</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>731068.8657165424</v>
+        <v>731144.5189469999</v>
       </c>
       <c r="R48" t="n">
-        <v>7377382.447470394</v>
+        <v>7377276.159952321</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -5933,22 +5954,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>95526557</v>
+        <v>95525726</v>
       </c>
       <c r="B49" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5961,34 +5982,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>731081.5441688144</v>
+        <v>731141.4169256137</v>
       </c>
       <c r="R49" t="n">
-        <v>7377336.460497634</v>
+        <v>7377260.22102132</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6045,22 +6066,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>95526566</v>
+        <v>95525735</v>
       </c>
       <c r="B50" t="n">
-        <v>77588</v>
+        <v>81236</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6073,34 +6094,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>731105.0736012852</v>
+        <v>731300.8703368135</v>
       </c>
       <c r="R50" t="n">
-        <v>7377382.643747968</v>
+        <v>7377385.262342062</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6127,7 +6148,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6137,7 +6158,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6157,22 +6178,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>95521892</v>
+        <v>95524901</v>
       </c>
       <c r="B51" t="n">
-        <v>76909</v>
+        <v>89410</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6185,34 +6206,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6437</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>731095.7841368329</v>
+        <v>731254.800941787</v>
       </c>
       <c r="R51" t="n">
-        <v>7377397.551511872</v>
+        <v>7377377.809948722</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6239,7 +6260,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6249,7 +6270,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6269,22 +6290,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>95524951</v>
+        <v>95524696</v>
       </c>
       <c r="B52" t="n">
-        <v>76909</v>
+        <v>73693</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6297,21 +6318,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6437</v>
+        <v>6440</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6321,10 +6342,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>731201.1324956611</v>
+        <v>731253.6267716239</v>
       </c>
       <c r="R52" t="n">
-        <v>7377210.10276178</v>
+        <v>7377338.711873068</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6393,7 +6414,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>95524881</v>
+        <v>95524877</v>
       </c>
       <c r="B53" t="n">
         <v>77588</v>
@@ -6433,10 +6454,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>731294.631420763</v>
+        <v>731245.6466144189</v>
       </c>
       <c r="R53" t="n">
-        <v>7377170.033314993</v>
+        <v>7377405.594547593</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6505,10 +6526,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>95524743</v>
+        <v>95526570</v>
       </c>
       <c r="B54" t="n">
-        <v>56411</v>
+        <v>77588</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6521,39 +6542,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100049</v>
+        <v>864</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>731304.4383812491</v>
+        <v>731144.1917574101</v>
       </c>
       <c r="R54" t="n">
-        <v>7377405.260327277</v>
+        <v>7377299.45296608</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6610,22 +6626,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>95526550</v>
+        <v>95524718</v>
       </c>
       <c r="B55" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6638,34 +6654,39 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>731121.5852296054</v>
+        <v>731310.4877543944</v>
       </c>
       <c r="R55" t="n">
-        <v>7377343.810701357</v>
+        <v>7377337.412717641</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6692,7 +6713,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6702,7 +6723,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6722,22 +6743,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>95526597</v>
+        <v>95524781</v>
       </c>
       <c r="B56" t="n">
-        <v>76909</v>
+        <v>95525</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6746,38 +6767,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6437</v>
+        <v>221941</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>731072.8137312708</v>
+        <v>731296.9594142459</v>
       </c>
       <c r="R56" t="n">
-        <v>7377325.280919846</v>
+        <v>7377316.183236159</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6804,7 +6825,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6814,7 +6835,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6834,22 +6855,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>95526583</v>
+        <v>95525715</v>
       </c>
       <c r="B57" t="n">
-        <v>81236</v>
+        <v>95525</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6858,38 +6879,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>731106.0836639035</v>
+        <v>731145.5816548612</v>
       </c>
       <c r="R57" t="n">
-        <v>7377297.892155128</v>
+        <v>7377263.381920612</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -6946,19 +6967,19 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>95525738</v>
+        <v>95526581</v>
       </c>
       <c r="B58" t="n">
         <v>81236</v>
@@ -6994,14 +7015,14 @@
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>731309.5573388296</v>
+        <v>731141.8978569109</v>
       </c>
       <c r="R58" t="n">
-        <v>7377179.317308596</v>
+        <v>7377317.355333193</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7028,7 +7049,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7038,7 +7059,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7058,22 +7079,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>95526573</v>
+        <v>95526596</v>
       </c>
       <c r="B59" t="n">
-        <v>77506</v>
+        <v>76909</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7086,21 +7107,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7110,10 +7131,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>731136.5032587848</v>
+        <v>731095.6331657044</v>
       </c>
       <c r="R59" t="n">
-        <v>7377324.14390795</v>
+        <v>7377331.601008137</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7182,10 +7203,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>95526594</v>
+        <v>95525714</v>
       </c>
       <c r="B60" t="n">
-        <v>76909</v>
+        <v>95525</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7194,38 +7215,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6437</v>
+        <v>221941</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>731161.0174826731</v>
+        <v>731066.391522916</v>
       </c>
       <c r="R60" t="n">
-        <v>7377450.418991529</v>
+        <v>7377349.272860094</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7282,19 +7303,19 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>95525722</v>
+        <v>95526578</v>
       </c>
       <c r="B61" t="n">
         <v>81236</v>
@@ -7330,14 +7351,14 @@
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>731076.979669224</v>
+        <v>731121.4856103716</v>
       </c>
       <c r="R61" t="n">
-        <v>7377454.285395269</v>
+        <v>7377345.008609556</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7394,19 +7415,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>95526588</v>
+        <v>95526584</v>
       </c>
       <c r="B62" t="n">
         <v>81236</v>
@@ -7440,19 +7461,16 @@
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>731073.8536034208</v>
+        <v>731081.5441688144</v>
       </c>
       <c r="R62" t="n">
-        <v>7377472.519587825</v>
+        <v>7377336.460497634</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7503,7 +7521,6 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7522,10 +7539,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>95526586</v>
+        <v>95525712</v>
       </c>
       <c r="B63" t="n">
-        <v>81236</v>
+        <v>95525</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7534,38 +7551,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>731144.5189469999</v>
+        <v>731069.2905901837</v>
       </c>
       <c r="R63" t="n">
-        <v>7377276.159952321</v>
+        <v>7377353.132450734</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7622,22 +7639,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>95525713</v>
+        <v>95526568</v>
       </c>
       <c r="B64" t="n">
-        <v>95525</v>
+        <v>77588</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7646,38 +7663,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>221941</v>
+        <v>864</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>731069.3888418975</v>
+        <v>731081.3781656381</v>
       </c>
       <c r="R64" t="n">
-        <v>7377347.109689075</v>
+        <v>7377338.457015837</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7734,22 +7751,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>95524933</v>
+        <v>95526557</v>
       </c>
       <c r="B65" t="n">
-        <v>5113</v>
+        <v>73693</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7758,43 +7775,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100526</v>
+        <v>6440</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>731308.1177102538</v>
+        <v>731081.5441688144</v>
       </c>
       <c r="R65" t="n">
-        <v>7377143.411035416</v>
+        <v>7377336.460497634</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7821,7 +7833,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7831,7 +7843,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7851,22 +7863,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>95524932</v>
+        <v>95524951</v>
       </c>
       <c r="B66" t="n">
-        <v>5113</v>
+        <v>76909</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7875,43 +7887,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100526</v>
+        <v>6437</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>731087.6039494134</v>
+        <v>731201.1324956611</v>
       </c>
       <c r="R66" t="n">
-        <v>7377326.510659574</v>
+        <v>7377210.10276178</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -7938,7 +7945,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7948,7 +7955,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -7980,10 +7987,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>95525724</v>
+        <v>95526550</v>
       </c>
       <c r="B67" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7996,34 +8003,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>731096.3050236763</v>
+        <v>731121.5852296054</v>
       </c>
       <c r="R67" t="n">
-        <v>7377352.564195716</v>
+        <v>7377343.810701357</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8080,22 +8087,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>95525726</v>
+        <v>95526597</v>
       </c>
       <c r="B68" t="n">
-        <v>81236</v>
+        <v>76909</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8108,34 +8115,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1312</v>
+        <v>6437</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>731141.4169256137</v>
+        <v>731072.8137312708</v>
       </c>
       <c r="R68" t="n">
-        <v>7377260.22102132</v>
+        <v>7377325.280919846</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8192,22 +8199,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>95525740</v>
+        <v>95526583</v>
       </c>
       <c r="B69" t="n">
-        <v>77177</v>
+        <v>81236</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8220,34 +8227,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>353</v>
+        <v>1312</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>731262.9310629906</v>
+        <v>731106.0836639035</v>
       </c>
       <c r="R69" t="n">
-        <v>7377231.729645336</v>
+        <v>7377297.892155128</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8274,7 +8281,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -8284,7 +8291,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -8304,22 +8311,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>95526548</v>
+        <v>95525713</v>
       </c>
       <c r="B70" t="n">
-        <v>73693</v>
+        <v>95525</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8328,38 +8335,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6440</v>
+        <v>221941</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>731099.9728887338</v>
+        <v>731069.3888418975</v>
       </c>
       <c r="R70" t="n">
-        <v>7377366.539279395</v>
+        <v>7377347.109689075</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8416,22 +8423,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>95526556</v>
+        <v>95524932</v>
       </c>
       <c r="B71" t="n">
-        <v>73693</v>
+        <v>5113</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8440,38 +8447,43 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6440</v>
+        <v>100526</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>731128.4433704447</v>
+        <v>731087.6039494134</v>
       </c>
       <c r="R71" t="n">
-        <v>7377329.102551386</v>
+        <v>7377326.510659574</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8528,22 +8540,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>95526561</v>
+        <v>95525724</v>
       </c>
       <c r="B72" t="n">
-        <v>95525</v>
+        <v>81236</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8552,38 +8564,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>221941</v>
+        <v>1312</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>731061.6529647958</v>
+        <v>731096.3050236763</v>
       </c>
       <c r="R72" t="n">
-        <v>7377319.12614882</v>
+        <v>7377352.564195716</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8640,22 +8652,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>95525734</v>
+        <v>95526556</v>
       </c>
       <c r="B73" t="n">
-        <v>77588</v>
+        <v>73693</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8668,34 +8680,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>864</v>
+        <v>6440</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>731253.7563546489</v>
+        <v>731128.4433704447</v>
       </c>
       <c r="R73" t="n">
-        <v>7377167.838395521</v>
+        <v>7377329.102551386</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8722,7 +8734,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8732,7 +8744,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -8752,22 +8764,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>95525735</v>
+        <v>95526561</v>
       </c>
       <c r="B74" t="n">
-        <v>81236</v>
+        <v>95525</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8776,38 +8788,38 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>731300.8703368135</v>
+        <v>731061.6529647958</v>
       </c>
       <c r="R74" t="n">
-        <v>7377385.262342062</v>
+        <v>7377319.12614882</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -8834,7 +8846,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -8844,7 +8856,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -8864,22 +8876,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>95524901</v>
+        <v>95525711</v>
       </c>
       <c r="B75" t="n">
-        <v>89410</v>
+        <v>95525</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8888,38 +8900,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5432</v>
+        <v>221941</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>731254.800941787</v>
+        <v>731071.190991634</v>
       </c>
       <c r="R75" t="n">
-        <v>7377377.809948722</v>
+        <v>7377359.321373643</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -8946,7 +8958,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -8956,7 +8968,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -8976,22 +8988,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>95525711</v>
+        <v>95526599</v>
       </c>
       <c r="B76" t="n">
-        <v>95525</v>
+        <v>76909</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9000,38 +9012,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>221941</v>
+        <v>6437</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>731071.190991634</v>
+        <v>731049.692677488</v>
       </c>
       <c r="R76" t="n">
-        <v>7377359.321373643</v>
+        <v>7377312.904949927</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9088,22 +9100,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>95526599</v>
+        <v>95525725</v>
       </c>
       <c r="B77" t="n">
-        <v>76909</v>
+        <v>81236</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9116,34 +9128,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6437</v>
+        <v>1312</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>731049.692677488</v>
+        <v>731102.6278793053</v>
       </c>
       <c r="R77" t="n">
-        <v>7377312.904949927</v>
+        <v>7377329.770242247</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>
@@ -9200,22 +9212,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>95524696</v>
+        <v>95526542</v>
       </c>
       <c r="B78" t="n">
-        <v>73693</v>
+        <v>5135</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9224,38 +9236,47 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6440</v>
+        <v>105930</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>731253.6267716239</v>
+        <v>731122.0068365773</v>
       </c>
       <c r="R78" t="n">
-        <v>7377338.711873068</v>
+        <v>7377300.020414264</v>
       </c>
       <c r="S78" t="n">
         <v>20</v>
@@ -9282,7 +9303,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9292,7 +9313,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9306,28 +9327,29 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>95524877</v>
+        <v>95526591</v>
       </c>
       <c r="B79" t="n">
-        <v>77588</v>
+        <v>76486</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9340,34 +9362,37 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>864</v>
+        <v>6487</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>731245.6466144189</v>
+        <v>731095.5654570702</v>
       </c>
       <c r="R79" t="n">
-        <v>7377405.594547593</v>
+        <v>7377327.574721696</v>
       </c>
       <c r="S79" t="n">
         <v>20</v>
@@ -9394,7 +9419,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -9404,7 +9429,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -9418,28 +9443,29 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>95525701</v>
+        <v>95524725</v>
       </c>
       <c r="B80" t="n">
-        <v>89557</v>
+        <v>101680</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9448,38 +9474,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1588</v>
+        <v>222412</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>731129.1372095407</v>
+        <v>731344.4368176023</v>
       </c>
       <c r="R80" t="n">
-        <v>7377436.912044343</v>
+        <v>7377185.839129029</v>
       </c>
       <c r="S80" t="n">
         <v>20</v>
@@ -9506,7 +9532,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
@@ -9516,7 +9542,7 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
@@ -9536,22 +9562,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>95526570</v>
+        <v>95524724</v>
       </c>
       <c r="B81" t="n">
-        <v>77588</v>
+        <v>101680</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9560,38 +9586,38 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>864</v>
+        <v>222412</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>731144.1917574101</v>
+        <v>731286.1589549112</v>
       </c>
       <c r="R81" t="n">
-        <v>7377299.45296608</v>
+        <v>7377117.055652067</v>
       </c>
       <c r="S81" t="n">
         <v>20</v>
@@ -9618,7 +9644,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -9628,7 +9654,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -9648,22 +9674,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>95526606</v>
+        <v>95524759</v>
       </c>
       <c r="B82" t="n">
-        <v>101680</v>
+        <v>78503</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9676,34 +9702,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>222412</v>
+        <v>6456</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>731316.7804994041</v>
+        <v>731347.0751603107</v>
       </c>
       <c r="R82" t="n">
-        <v>7377150.565531123</v>
+        <v>7377221.844749237</v>
       </c>
       <c r="S82" t="n">
         <v>20</v>
@@ -9760,22 +9786,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>95524718</v>
+        <v>95524848</v>
       </c>
       <c r="B83" t="n">
-        <v>56395</v>
+        <v>77588</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9788,39 +9814,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>731310.4877543944</v>
+        <v>731306.8196960544</v>
       </c>
       <c r="R83" t="n">
-        <v>7377337.412717641</v>
+        <v>7377149.334471703</v>
       </c>
       <c r="S83" t="n">
         <v>20</v>
@@ -9889,10 +9910,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95524781</v>
+        <v>95525728</v>
       </c>
       <c r="B84" t="n">
-        <v>95525</v>
+        <v>76504</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9901,38 +9922,38 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>221941</v>
+        <v>314</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>731296.9594142459</v>
+        <v>731309.5573388296</v>
       </c>
       <c r="R84" t="n">
-        <v>7377316.183236159</v>
+        <v>7377179.317308596</v>
       </c>
       <c r="S84" t="n">
         <v>20</v>
@@ -9989,22 +10010,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>95525725</v>
+        <v>95526601</v>
       </c>
       <c r="B85" t="n">
-        <v>81236</v>
+        <v>76504</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10017,34 +10038,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1312</v>
+        <v>314</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>731102.6278793053</v>
+        <v>731318.6815007103</v>
       </c>
       <c r="R85" t="n">
-        <v>7377329.770242247</v>
+        <v>7377161.580336118</v>
       </c>
       <c r="S85" t="n">
         <v>20</v>
@@ -10071,7 +10092,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10081,7 +10102,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10101,22 +10122,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>95525715</v>
+        <v>95525733</v>
       </c>
       <c r="B86" t="n">
-        <v>95525</v>
+        <v>56542</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10125,25 +10146,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>221941</v>
+        <v>103022</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Lappmes</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Poecile cinctus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Boddaert, 1783)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10153,10 +10174,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>731145.5816548612</v>
+        <v>731305.526533796</v>
       </c>
       <c r="R86" t="n">
-        <v>7377263.381920612</v>
+        <v>7377179.383949534</v>
       </c>
       <c r="S86" t="n">
         <v>20</v>
@@ -10183,7 +10204,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -10193,7 +10214,7 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
@@ -10225,10 +10246,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>95526581</v>
+        <v>95524881</v>
       </c>
       <c r="B87" t="n">
-        <v>81236</v>
+        <v>77588</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10241,34 +10262,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1312</v>
+        <v>864</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>731141.8978569109</v>
+        <v>731294.631420763</v>
       </c>
       <c r="R87" t="n">
-        <v>7377317.355333193</v>
+        <v>7377170.033314993</v>
       </c>
       <c r="S87" t="n">
         <v>20</v>
@@ -10295,7 +10316,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10305,7 +10326,7 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
@@ -10325,22 +10346,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>95526542</v>
+        <v>95525738</v>
       </c>
       <c r="B88" t="n">
-        <v>5135</v>
+        <v>81236</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10349,47 +10370,38 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>105930</v>
+        <v>1312</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>731122.0068365773</v>
+        <v>731309.5573388296</v>
       </c>
       <c r="R88" t="n">
-        <v>7377300.020414264</v>
+        <v>7377179.317308596</v>
       </c>
       <c r="S88" t="n">
         <v>20</v>
@@ -10416,7 +10428,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -10426,7 +10438,7 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
@@ -10440,29 +10452,28 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>95526589</v>
+        <v>95524933</v>
       </c>
       <c r="B89" t="n">
-        <v>76486</v>
+        <v>5113</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10471,41 +10482,43 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6487</v>
+        <v>100526</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>731162.2166363262</v>
+        <v>731308.1177102538</v>
       </c>
       <c r="R89" t="n">
-        <v>7377450.518736145</v>
+        <v>7377143.411035416</v>
       </c>
       <c r="S89" t="n">
         <v>20</v>
@@ -10532,7 +10545,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -10542,7 +10555,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -10556,29 +10569,28 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>95521891</v>
+        <v>95525740</v>
       </c>
       <c r="B90" t="n">
-        <v>76486</v>
+        <v>77177</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10591,37 +10603,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6487</v>
+        <v>353</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>731095.7841368329</v>
+        <v>731262.9310629906</v>
       </c>
       <c r="R90" t="n">
-        <v>7377397.551511872</v>
+        <v>7377231.729645336</v>
       </c>
       <c r="S90" t="n">
         <v>20</v>
@@ -10648,7 +10657,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -10658,7 +10667,7 @@
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
@@ -10672,29 +10681,28 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
-      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>95526591</v>
+        <v>95525734</v>
       </c>
       <c r="B91" t="n">
-        <v>76486</v>
+        <v>77588</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10707,37 +10715,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6487</v>
+        <v>864</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>731095.5654570702</v>
+        <v>731253.7563546489</v>
       </c>
       <c r="R91" t="n">
-        <v>7377327.574721696</v>
+        <v>7377167.838395521</v>
       </c>
       <c r="S91" t="n">
         <v>20</v>
@@ -10764,7 +10769,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -10774,7 +10779,7 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
@@ -10788,29 +10793,28 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>96409774</v>
+        <v>95526606</v>
       </c>
       <c r="B92" t="n">
-        <v>89545</v>
+        <v>101680</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10819,52 +10823,41 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1503</v>
+        <v>222412</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Görjeån, Ö skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>731282.6556903012</v>
+        <v>731316.7804994041</v>
       </c>
       <c r="R92" t="n">
-        <v>7377251.062608211</v>
+        <v>7377150.565531123</v>
       </c>
       <c r="S92" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -10911,11 +10904,6 @@
       </c>
       <c r="AE92" t="b">
         <v>0</v>
-      </c>
-      <c r="AF92" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
       </c>
       <c r="AG92" t="b">
         <v>0</v>
@@ -10928,17 +10916,17 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Tore Dahlberg, Astrid Eklund, Iris Elmér, Ida Aronsen, Frank Pollari-Karlsson, Linnea Backman, Wanyi Ji, Amanda Helander, Flynn Smedman, Espen Quinto-Ashman, Elin Lönnberg</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>96409760</v>
+        <v>96409774</v>
       </c>
       <c r="B93" t="n">
-        <v>73698</v>
+        <v>89545</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10947,44 +10935,52 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1467</v>
+        <v>1503</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>731325.2836060632</v>
+        <v>731282.6556903012</v>
       </c>
       <c r="R93" t="n">
-        <v>7377193.493076357</v>
+        <v>7377251.062608211</v>
       </c>
       <c r="S93" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -11032,7 +11028,11 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
-      <c r="AF93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11051,10 +11051,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>96965438</v>
+        <v>96409760</v>
       </c>
       <c r="B94" t="n">
-        <v>76486</v>
+        <v>73698</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11067,21 +11067,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6487</v>
+        <v>1467</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11090,17 +11090,17 @@
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Görjeån, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>731075.7633380449</v>
+        <v>731325.2836060632</v>
       </c>
       <c r="R94" t="n">
-        <v>7377391.46416633</v>
+        <v>7377193.493076357</v>
       </c>
       <c r="S94" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Tore Dahlberg, Iris Elmér, Linnea Backman, Astrid Eklund, Frank Pollari-Karlsson, Amanda Helander, Espen Quinto-Ashman, Elin Lönnberg, Flynn Smedman, Ida Aronsen, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Tore Dahlberg, Astrid Eklund, Iris Elmér, Ida Aronsen, Frank Pollari-Karlsson, Linnea Backman, Wanyi Ji, Amanda Helander, Flynn Smedman, Espen Quinto-Ashman, Elin Lönnberg</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>

--- a/artfynd/A 65332-2020.xlsx
+++ b/artfynd/A 65332-2020.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95525723</v>
+        <v>95524725</v>
       </c>
       <c r="B5" t="n">
-        <v>81236</v>
+        <v>101680</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,38 +1028,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>222412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>731041.6813701726</v>
+        <v>731344.4368176023</v>
       </c>
       <c r="R5" t="n">
-        <v>7377486.730515879</v>
+        <v>7377185.839129029</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95525704</v>
+        <v>95525723</v>
       </c>
       <c r="B6" t="n">
-        <v>78098</v>
+        <v>81236</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>731096.946238292</v>
+        <v>731041.6813701726</v>
       </c>
       <c r="R6" t="n">
-        <v>7377383.576149886</v>
+        <v>7377486.730515879</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95525702</v>
+        <v>95526554</v>
       </c>
       <c r="B7" t="n">
-        <v>78098</v>
+        <v>73693</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,34 +1256,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>731101.9102677843</v>
+        <v>731141.8978569109</v>
       </c>
       <c r="R7" t="n">
-        <v>7377386.803336137</v>
+        <v>7377317.355333193</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1340,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95525708</v>
+        <v>95526596</v>
       </c>
       <c r="B8" t="n">
-        <v>95525</v>
+        <v>76909</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,38 +1364,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221941</v>
+        <v>6437</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>731058.9057262606</v>
+        <v>731095.6331657044</v>
       </c>
       <c r="R8" t="n">
-        <v>7377381.217323492</v>
+        <v>7377331.601008137</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1452,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95524692</v>
+        <v>95525704</v>
       </c>
       <c r="B9" t="n">
-        <v>73693</v>
+        <v>78098</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,34 +1480,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6440</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>731082.8426214914</v>
+        <v>731096.946238292</v>
       </c>
       <c r="R9" t="n">
-        <v>7377456.381089067</v>
+        <v>7377383.576149886</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95525709</v>
+        <v>95524724</v>
       </c>
       <c r="B10" t="n">
-        <v>95525</v>
+        <v>101680</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221941</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1612,14 +1612,14 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>731057.8725300441</v>
+        <v>731286.1589549112</v>
       </c>
       <c r="R10" t="n">
-        <v>7377379.121136602</v>
+        <v>7377117.055652067</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1676,19 +1676,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95524693</v>
+        <v>95524697</v>
       </c>
       <c r="B11" t="n">
         <v>73693</v>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>731072.7846200749</v>
+        <v>731346.5285797676</v>
       </c>
       <c r="R11" t="n">
-        <v>7377461.173428355</v>
+        <v>7377329.958726601</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>95525710</v>
+        <v>95524783</v>
       </c>
       <c r="B12" t="n">
         <v>95525</v>
@@ -1836,14 +1836,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>731071.2282080103</v>
+        <v>731310.4877543944</v>
       </c>
       <c r="R12" t="n">
-        <v>7377373.396560187</v>
+        <v>7377337.412717641</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1900,22 +1900,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>95526546</v>
+        <v>95525702</v>
       </c>
       <c r="B13" t="n">
-        <v>73693</v>
+        <v>78098</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,34 +1928,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>731083.746861183</v>
+        <v>731101.9102677843</v>
       </c>
       <c r="R13" t="n">
-        <v>7377474.548348676</v>
+        <v>7377386.803336137</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2012,22 +2012,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95521893</v>
+        <v>95525739</v>
       </c>
       <c r="B14" t="n">
-        <v>76909</v>
+        <v>77177</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6437</v>
+        <v>353</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>731105.0723229445</v>
+        <v>731256.93553675</v>
       </c>
       <c r="R14" t="n">
-        <v>7377377.818937358</v>
+        <v>7377390.853555483</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2124,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95525707</v>
+        <v>95525731</v>
       </c>
       <c r="B15" t="n">
-        <v>95525</v>
+        <v>73693</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>731068.8657165424</v>
+        <v>731362.51884524</v>
       </c>
       <c r="R15" t="n">
-        <v>7377382.447470394</v>
+        <v>7377336.114688792</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>95526566</v>
+        <v>95524953</v>
       </c>
       <c r="B16" t="n">
-        <v>77588</v>
+        <v>76909</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,34 +2264,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>864</v>
+        <v>6437</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>731105.0736012852</v>
+        <v>731302.5566876943</v>
       </c>
       <c r="R16" t="n">
-        <v>7377382.643747968</v>
+        <v>7377321.473934527</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2342,28 +2342,29 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95521892</v>
+        <v>95525708</v>
       </c>
       <c r="B17" t="n">
-        <v>76909</v>
+        <v>95525</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2373,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6437</v>
+        <v>221941</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2401,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>731095.7841368329</v>
+        <v>731058.9057262606</v>
       </c>
       <c r="R17" t="n">
-        <v>7377397.551511872</v>
+        <v>7377381.217323492</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2460,22 +2461,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>95525722</v>
+        <v>95524692</v>
       </c>
       <c r="B18" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,34 +2489,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>731076.979669224</v>
+        <v>731082.8426214914</v>
       </c>
       <c r="R18" t="n">
-        <v>7377454.285395269</v>
+        <v>7377456.381089067</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2572,22 +2573,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>95526588</v>
+        <v>95524759</v>
       </c>
       <c r="B19" t="n">
-        <v>81236</v>
+        <v>78503</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,41 +2597,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1312</v>
+        <v>6456</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>731073.8536034208</v>
+        <v>731347.0751603107</v>
       </c>
       <c r="R19" t="n">
-        <v>7377472.519587825</v>
+        <v>7377221.844749237</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2657,7 +2655,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2667,7 +2665,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2681,29 +2679,28 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95525701</v>
+        <v>95524878</v>
       </c>
       <c r="B20" t="n">
-        <v>89557</v>
+        <v>77588</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2716,34 +2713,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1588</v>
+        <v>864</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>731129.1372095407</v>
+        <v>731240.8114848726</v>
       </c>
       <c r="R20" t="n">
-        <v>7377436.912044343</v>
+        <v>7377381.470669083</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2770,7 +2767,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2780,7 +2777,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2800,22 +2797,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>95521891</v>
+        <v>95525714</v>
       </c>
       <c r="B21" t="n">
-        <v>76486</v>
+        <v>95525</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,41 +2821,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6487</v>
+        <v>221941</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>731095.7841368329</v>
+        <v>731066.391522916</v>
       </c>
       <c r="R21" t="n">
-        <v>7377397.551511872</v>
+        <v>7377349.272860094</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2909,29 +2903,28 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>96965438</v>
+        <v>95525736</v>
       </c>
       <c r="B22" t="n">
-        <v>76486</v>
+        <v>81236</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2944,40 +2937,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6487</v>
+        <v>1312</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Görjeån, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>731075.7633380449</v>
+        <v>731337.975879339</v>
       </c>
       <c r="R22" t="n">
-        <v>7377391.46416633</v>
+        <v>7377374.68057525</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3001,7 +2991,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3011,7 +3001,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3025,26 +3015,25 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Tore Dahlberg, Iris Elmér, Linnea Backman, Astrid Eklund, Frank Pollari-Karlsson, Amanda Helander, Espen Quinto-Ashman, Elin Lönnberg, Flynn Smedman, Ida Aronsen, Wanyi Ji</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95524912</v>
+        <v>95526580</v>
       </c>
       <c r="B23" t="n">
         <v>81236</v>
@@ -3080,14 +3069,14 @@
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>731153.3029610582</v>
+        <v>731136.5032587848</v>
       </c>
       <c r="R23" t="n">
-        <v>7377504.455598107</v>
+        <v>7377324.14390795</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3144,22 +3133,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>95526594</v>
+        <v>95526578</v>
       </c>
       <c r="B24" t="n">
-        <v>76909</v>
+        <v>81236</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3172,21 +3161,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6437</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3196,10 +3185,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>731161.0174826731</v>
+        <v>731121.4856103716</v>
       </c>
       <c r="R24" t="n">
-        <v>7377450.418991529</v>
+        <v>7377345.008609556</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3268,10 +3257,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>95526548</v>
+        <v>95526584</v>
       </c>
       <c r="B25" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3284,21 +3273,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3308,10 +3297,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>731099.9728887338</v>
+        <v>731081.5441688144</v>
       </c>
       <c r="R25" t="n">
-        <v>7377366.539279395</v>
+        <v>7377336.460497634</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3380,10 +3369,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>95526589</v>
+        <v>95524848</v>
       </c>
       <c r="B26" t="n">
-        <v>76486</v>
+        <v>77588</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3396,37 +3385,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6487</v>
+        <v>864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>731162.2166363262</v>
+        <v>731306.8196960544</v>
       </c>
       <c r="R26" t="n">
-        <v>7377450.518736145</v>
+        <v>7377149.334471703</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3453,7 +3439,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3463,7 +3449,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3477,29 +3463,28 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>95526554</v>
+        <v>95525709</v>
       </c>
       <c r="B27" t="n">
-        <v>73693</v>
+        <v>95525</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3508,38 +3493,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>221941</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>731141.8978569109</v>
+        <v>731057.8725300441</v>
       </c>
       <c r="R27" t="n">
-        <v>7377317.355333193</v>
+        <v>7377379.121136602</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3596,22 +3581,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>95524697</v>
+        <v>95525712</v>
       </c>
       <c r="B28" t="n">
-        <v>73693</v>
+        <v>95525</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3620,38 +3605,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>221941</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>731346.5285797676</v>
+        <v>731069.2905901837</v>
       </c>
       <c r="R28" t="n">
-        <v>7377329.958726601</v>
+        <v>7377353.132450734</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3678,7 +3663,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3688,7 +3673,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3708,19 +3693,19 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>95524783</v>
+        <v>95524780</v>
       </c>
       <c r="B29" t="n">
         <v>95525</v>
@@ -3760,10 +3745,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>731310.4877543944</v>
+        <v>731254.800941787</v>
       </c>
       <c r="R29" t="n">
-        <v>7377337.412717641</v>
+        <v>7377377.809948722</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3832,10 +3817,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>95525739</v>
+        <v>95524693</v>
       </c>
       <c r="B30" t="n">
-        <v>77177</v>
+        <v>73693</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3848,34 +3833,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>731256.93553675</v>
+        <v>731072.7846200749</v>
       </c>
       <c r="R30" t="n">
-        <v>7377390.853555483</v>
+        <v>7377461.173428355</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3902,7 +3887,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3912,7 +3897,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3932,19 +3917,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>95525731</v>
+        <v>95525700</v>
       </c>
       <c r="B31" t="n">
         <v>73693</v>
@@ -3984,10 +3969,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>731362.51884524</v>
+        <v>731137.4858902898</v>
       </c>
       <c r="R31" t="n">
-        <v>7377336.114688792</v>
+        <v>7377259.089945626</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4014,7 +3999,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4024,7 +4009,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4056,10 +4041,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>95524953</v>
+        <v>95525710</v>
       </c>
       <c r="B32" t="n">
-        <v>76909</v>
+        <v>95525</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4068,38 +4053,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6437</v>
+        <v>221941</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>731302.5566876943</v>
+        <v>731071.2282080103</v>
       </c>
       <c r="R32" t="n">
-        <v>7377321.473934527</v>
+        <v>7377373.396560187</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4126,7 +4111,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4136,7 +4121,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4150,29 +4135,28 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>95524878</v>
+        <v>95526545</v>
       </c>
       <c r="B33" t="n">
-        <v>77588</v>
+        <v>76504</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4185,34 +4169,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>864</v>
+        <v>314</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>731240.8114848726</v>
+        <v>731142.9261198903</v>
       </c>
       <c r="R33" t="n">
-        <v>7377381.470669083</v>
+        <v>7377300.151848644</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4239,7 +4223,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4249,7 +4233,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4269,22 +4253,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95525736</v>
+        <v>95526546</v>
       </c>
       <c r="B34" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4297,34 +4281,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>731337.975879339</v>
+        <v>731083.746861183</v>
       </c>
       <c r="R34" t="n">
-        <v>7377374.68057525</v>
+        <v>7377474.548348676</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4351,7 +4335,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4361,7 +4345,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4381,22 +4365,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>95526580</v>
+        <v>95526568</v>
       </c>
       <c r="B35" t="n">
-        <v>81236</v>
+        <v>77588</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4409,21 +4393,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1312</v>
+        <v>864</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4433,10 +4417,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>731136.5032587848</v>
+        <v>731081.3781656381</v>
       </c>
       <c r="R35" t="n">
-        <v>7377324.14390795</v>
+        <v>7377338.457015837</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4505,10 +4489,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>95524780</v>
+        <v>95526604</v>
       </c>
       <c r="B36" t="n">
-        <v>95525</v>
+        <v>73693</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4517,38 +4501,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>731254.800941787</v>
+        <v>731334.2094745624</v>
       </c>
       <c r="R36" t="n">
-        <v>7377377.809948722</v>
+        <v>7377361.90300436</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4605,22 +4589,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>95525700</v>
+        <v>95521893</v>
       </c>
       <c r="B37" t="n">
-        <v>73693</v>
+        <v>76909</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4633,21 +4617,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6440</v>
+        <v>6437</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4657,10 +4641,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>731137.4858902898</v>
+        <v>731105.0723229445</v>
       </c>
       <c r="R37" t="n">
-        <v>7377259.089945626</v>
+        <v>7377377.818937358</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4717,19 +4701,19 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Espen Quinto-Ashman</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>95526545</v>
+        <v>95525728</v>
       </c>
       <c r="B38" t="n">
         <v>76504</v>
@@ -4765,14 +4749,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>731142.9261198903</v>
+        <v>731309.5573388296</v>
       </c>
       <c r="R38" t="n">
-        <v>7377300.151848644</v>
+        <v>7377179.317308596</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4799,7 +4783,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4809,7 +4793,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4829,19 +4813,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>95526604</v>
+        <v>95525730</v>
       </c>
       <c r="B39" t="n">
         <v>73693</v>
@@ -4877,14 +4861,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>731334.2094745624</v>
+        <v>731263.7963400804</v>
       </c>
       <c r="R39" t="n">
-        <v>7377361.90300436</v>
+        <v>7377385.795597434</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -4941,22 +4925,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>95525730</v>
+        <v>95525732</v>
       </c>
       <c r="B40" t="n">
-        <v>73693</v>
+        <v>95525</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4965,25 +4949,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6440</v>
+        <v>221941</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4993,10 +4977,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>731263.7963400804</v>
+        <v>731257.7672022315</v>
       </c>
       <c r="R40" t="n">
-        <v>7377385.795597434</v>
+        <v>7377385.69595964</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5065,10 +5049,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>95525732</v>
+        <v>95524912</v>
       </c>
       <c r="B41" t="n">
-        <v>95525</v>
+        <v>81236</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5077,38 +5061,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221941</v>
+        <v>1312</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>731257.7672022315</v>
+        <v>731153.3029610582</v>
       </c>
       <c r="R41" t="n">
-        <v>7377385.69595964</v>
+        <v>7377504.455598107</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5135,7 +5119,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5145,7 +5129,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5165,12 +5149,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5289,10 +5273,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>95526611</v>
+        <v>95526601</v>
       </c>
       <c r="B43" t="n">
-        <v>81236</v>
+        <v>76504</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5305,21 +5289,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1312</v>
+        <v>314</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5329,10 +5313,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>731306.7323874033</v>
+        <v>731318.6815007103</v>
       </c>
       <c r="R43" t="n">
-        <v>7377382.533721442</v>
+        <v>7377161.580336118</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5401,10 +5385,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>95526602</v>
+        <v>95526611</v>
       </c>
       <c r="B44" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5417,21 +5401,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5441,10 +5425,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>731263.063338915</v>
+        <v>731306.7323874033</v>
       </c>
       <c r="R44" t="n">
-        <v>7377384.930477669</v>
+        <v>7377382.533721442</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5513,7 +5497,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>95526559</v>
+        <v>95526602</v>
       </c>
       <c r="B45" t="n">
         <v>73693</v>
@@ -5553,10 +5537,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>731141.4169256137</v>
+        <v>731263.063338915</v>
       </c>
       <c r="R45" t="n">
-        <v>7377260.22102132</v>
+        <v>7377384.930477669</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5583,7 +5567,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5593,7 +5577,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5625,10 +5609,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>95524743</v>
+        <v>95526559</v>
       </c>
       <c r="B46" t="n">
-        <v>56411</v>
+        <v>73693</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5641,39 +5625,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100049</v>
+        <v>6440</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>731304.4383812491</v>
+        <v>731141.4169256137</v>
       </c>
       <c r="R46" t="n">
-        <v>7377405.260327277</v>
+        <v>7377260.22102132</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5730,22 +5709,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>95526573</v>
+        <v>95525733</v>
       </c>
       <c r="B47" t="n">
-        <v>77506</v>
+        <v>56542</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5758,34 +5737,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>103022</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappmes</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile cinctus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Boddaert, 1783)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>731136.5032587848</v>
+        <v>731305.526533796</v>
       </c>
       <c r="R47" t="n">
-        <v>7377324.14390795</v>
+        <v>7377179.383949534</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5812,7 +5791,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5822,7 +5801,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5842,22 +5821,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>95526586</v>
+        <v>95525707</v>
       </c>
       <c r="B48" t="n">
-        <v>81236</v>
+        <v>95525</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5866,38 +5845,38 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>731144.5189469999</v>
+        <v>731068.8657165424</v>
       </c>
       <c r="R48" t="n">
-        <v>7377276.159952321</v>
+        <v>7377382.447470394</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -5954,22 +5933,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>95525726</v>
+        <v>95526557</v>
       </c>
       <c r="B49" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5982,34 +5961,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>731141.4169256137</v>
+        <v>731081.5441688144</v>
       </c>
       <c r="R49" t="n">
-        <v>7377260.22102132</v>
+        <v>7377336.460497634</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6066,22 +6045,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>95525735</v>
+        <v>95526566</v>
       </c>
       <c r="B50" t="n">
-        <v>81236</v>
+        <v>77588</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6094,34 +6073,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1312</v>
+        <v>864</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>731300.8703368135</v>
+        <v>731105.0736012852</v>
       </c>
       <c r="R50" t="n">
-        <v>7377385.262342062</v>
+        <v>7377382.643747968</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6148,7 +6127,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6158,7 +6137,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6178,22 +6157,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>95524901</v>
+        <v>95521892</v>
       </c>
       <c r="B51" t="n">
-        <v>89410</v>
+        <v>76909</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6206,34 +6185,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>6437</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>731254.800941787</v>
+        <v>731095.7841368329</v>
       </c>
       <c r="R51" t="n">
-        <v>7377377.809948722</v>
+        <v>7377397.551511872</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6260,7 +6239,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6270,7 +6249,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6290,22 +6269,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Espen Quinto-Ashman</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>95524696</v>
+        <v>95524951</v>
       </c>
       <c r="B52" t="n">
-        <v>73693</v>
+        <v>76909</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6318,21 +6297,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6440</v>
+        <v>6437</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6342,10 +6321,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>731253.6267716239</v>
+        <v>731201.1324956611</v>
       </c>
       <c r="R52" t="n">
-        <v>7377338.711873068</v>
+        <v>7377210.10276178</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6414,7 +6393,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>95524877</v>
+        <v>95524881</v>
       </c>
       <c r="B53" t="n">
         <v>77588</v>
@@ -6454,10 +6433,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>731245.6466144189</v>
+        <v>731294.631420763</v>
       </c>
       <c r="R53" t="n">
-        <v>7377405.594547593</v>
+        <v>7377170.033314993</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6526,10 +6505,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>95526570</v>
+        <v>95524743</v>
       </c>
       <c r="B54" t="n">
-        <v>77588</v>
+        <v>56411</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6542,34 +6521,39 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>864</v>
+        <v>100049</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>731144.1917574101</v>
+        <v>731304.4383812491</v>
       </c>
       <c r="R54" t="n">
-        <v>7377299.45296608</v>
+        <v>7377405.260327277</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6626,22 +6610,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>95524718</v>
+        <v>95526550</v>
       </c>
       <c r="B55" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6654,39 +6638,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>731310.4877543944</v>
+        <v>731121.5852296054</v>
       </c>
       <c r="R55" t="n">
-        <v>7377337.412717641</v>
+        <v>7377343.810701357</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6713,7 +6692,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6723,7 +6702,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6743,22 +6722,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>95524781</v>
+        <v>95526597</v>
       </c>
       <c r="B56" t="n">
-        <v>95525</v>
+        <v>76909</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6767,38 +6746,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>221941</v>
+        <v>6437</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>731296.9594142459</v>
+        <v>731072.8137312708</v>
       </c>
       <c r="R56" t="n">
-        <v>7377316.183236159</v>
+        <v>7377325.280919846</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6825,7 +6804,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6835,7 +6814,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6855,22 +6834,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>95525715</v>
+        <v>95526583</v>
       </c>
       <c r="B57" t="n">
-        <v>95525</v>
+        <v>81236</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6879,38 +6858,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>221941</v>
+        <v>1312</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>731145.5816548612</v>
+        <v>731106.0836639035</v>
       </c>
       <c r="R57" t="n">
-        <v>7377263.381920612</v>
+        <v>7377297.892155128</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -6967,19 +6946,19 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>95526581</v>
+        <v>95525738</v>
       </c>
       <c r="B58" t="n">
         <v>81236</v>
@@ -7015,14 +6994,14 @@
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>731141.8978569109</v>
+        <v>731309.5573388296</v>
       </c>
       <c r="R58" t="n">
-        <v>7377317.355333193</v>
+        <v>7377179.317308596</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7049,7 +7028,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7059,7 +7038,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7079,22 +7058,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>95526596</v>
+        <v>95526573</v>
       </c>
       <c r="B59" t="n">
-        <v>76909</v>
+        <v>77506</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7107,21 +7086,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7131,10 +7110,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>731095.6331657044</v>
+        <v>731136.5032587848</v>
       </c>
       <c r="R59" t="n">
-        <v>7377331.601008137</v>
+        <v>7377324.14390795</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7203,10 +7182,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>95525714</v>
+        <v>95526594</v>
       </c>
       <c r="B60" t="n">
-        <v>95525</v>
+        <v>76909</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7215,38 +7194,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>221941</v>
+        <v>6437</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>731066.391522916</v>
+        <v>731161.0174826731</v>
       </c>
       <c r="R60" t="n">
-        <v>7377349.272860094</v>
+        <v>7377450.418991529</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7303,19 +7282,19 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>95526578</v>
+        <v>95525722</v>
       </c>
       <c r="B61" t="n">
         <v>81236</v>
@@ -7351,14 +7330,14 @@
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>731121.4856103716</v>
+        <v>731076.979669224</v>
       </c>
       <c r="R61" t="n">
-        <v>7377345.008609556</v>
+        <v>7377454.285395269</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7415,19 +7394,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>95526584</v>
+        <v>95526588</v>
       </c>
       <c r="B62" t="n">
         <v>81236</v>
@@ -7461,16 +7440,19 @@
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>731081.5441688144</v>
+        <v>731073.8536034208</v>
       </c>
       <c r="R62" t="n">
-        <v>7377336.460497634</v>
+        <v>7377472.519587825</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7521,6 +7503,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7539,10 +7522,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>95525712</v>
+        <v>95526586</v>
       </c>
       <c r="B63" t="n">
-        <v>95525</v>
+        <v>81236</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7551,38 +7534,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221941</v>
+        <v>1312</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>731069.2905901837</v>
+        <v>731144.5189469999</v>
       </c>
       <c r="R63" t="n">
-        <v>7377353.132450734</v>
+        <v>7377276.159952321</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7639,22 +7622,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>95526568</v>
+        <v>95525713</v>
       </c>
       <c r="B64" t="n">
-        <v>77588</v>
+        <v>95525</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7663,38 +7646,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>864</v>
+        <v>221941</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>731081.3781656381</v>
+        <v>731069.3888418975</v>
       </c>
       <c r="R64" t="n">
-        <v>7377338.457015837</v>
+        <v>7377347.109689075</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7751,22 +7734,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>95526557</v>
+        <v>95524933</v>
       </c>
       <c r="B65" t="n">
-        <v>73693</v>
+        <v>5113</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7775,38 +7758,43 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6440</v>
+        <v>100526</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>731081.5441688144</v>
+        <v>731308.1177102538</v>
       </c>
       <c r="R65" t="n">
-        <v>7377336.460497634</v>
+        <v>7377143.411035416</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7833,7 +7821,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7843,7 +7831,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7863,22 +7851,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>95524951</v>
+        <v>95524932</v>
       </c>
       <c r="B66" t="n">
-        <v>76909</v>
+        <v>5113</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7887,38 +7875,43 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6437</v>
+        <v>100526</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>731201.1324956611</v>
+        <v>731087.6039494134</v>
       </c>
       <c r="R66" t="n">
-        <v>7377210.10276178</v>
+        <v>7377326.510659574</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -7945,7 +7938,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7955,7 +7948,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -7987,10 +7980,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>95526550</v>
+        <v>95525724</v>
       </c>
       <c r="B67" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8003,34 +7996,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>731121.5852296054</v>
+        <v>731096.3050236763</v>
       </c>
       <c r="R67" t="n">
-        <v>7377343.810701357</v>
+        <v>7377352.564195716</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8087,22 +8080,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>95526597</v>
+        <v>95525726</v>
       </c>
       <c r="B68" t="n">
-        <v>76909</v>
+        <v>81236</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8115,34 +8108,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6437</v>
+        <v>1312</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>731072.8137312708</v>
+        <v>731141.4169256137</v>
       </c>
       <c r="R68" t="n">
-        <v>7377325.280919846</v>
+        <v>7377260.22102132</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8199,22 +8192,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>95526583</v>
+        <v>95525740</v>
       </c>
       <c r="B69" t="n">
-        <v>81236</v>
+        <v>77177</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8227,34 +8220,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1312</v>
+        <v>353</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>731106.0836639035</v>
+        <v>731262.9310629906</v>
       </c>
       <c r="R69" t="n">
-        <v>7377297.892155128</v>
+        <v>7377231.729645336</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8281,7 +8274,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -8291,7 +8284,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -8311,22 +8304,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>95525713</v>
+        <v>95526548</v>
       </c>
       <c r="B70" t="n">
-        <v>95525</v>
+        <v>73693</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8335,38 +8328,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>731069.3888418975</v>
+        <v>731099.9728887338</v>
       </c>
       <c r="R70" t="n">
-        <v>7377347.109689075</v>
+        <v>7377366.539279395</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8423,22 +8416,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>95524932</v>
+        <v>95526556</v>
       </c>
       <c r="B71" t="n">
-        <v>5113</v>
+        <v>73693</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8447,43 +8440,38 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100526</v>
+        <v>6440</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>731087.6039494134</v>
+        <v>731128.4433704447</v>
       </c>
       <c r="R71" t="n">
-        <v>7377326.510659574</v>
+        <v>7377329.102551386</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8540,22 +8528,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>95525724</v>
+        <v>95526561</v>
       </c>
       <c r="B72" t="n">
-        <v>81236</v>
+        <v>95525</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8564,38 +8552,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>731096.3050236763</v>
+        <v>731061.6529647958</v>
       </c>
       <c r="R72" t="n">
-        <v>7377352.564195716</v>
+        <v>7377319.12614882</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8652,22 +8640,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>95526556</v>
+        <v>95525734</v>
       </c>
       <c r="B73" t="n">
-        <v>73693</v>
+        <v>77588</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8680,34 +8668,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>731128.4433704447</v>
+        <v>731253.7563546489</v>
       </c>
       <c r="R73" t="n">
-        <v>7377329.102551386</v>
+        <v>7377167.838395521</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8734,7 +8722,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8744,7 +8732,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -8764,22 +8752,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>95526561</v>
+        <v>95525735</v>
       </c>
       <c r="B74" t="n">
-        <v>95525</v>
+        <v>81236</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8788,38 +8776,38 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>221941</v>
+        <v>1312</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>731061.6529647958</v>
+        <v>731300.8703368135</v>
       </c>
       <c r="R74" t="n">
-        <v>7377319.12614882</v>
+        <v>7377385.262342062</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -8846,7 +8834,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -8856,7 +8844,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -8876,22 +8864,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>95525711</v>
+        <v>95524901</v>
       </c>
       <c r="B75" t="n">
-        <v>95525</v>
+        <v>89410</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8900,38 +8888,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>221941</v>
+        <v>5432</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>731071.190991634</v>
+        <v>731254.800941787</v>
       </c>
       <c r="R75" t="n">
-        <v>7377359.321373643</v>
+        <v>7377377.809948722</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -8958,7 +8946,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -8968,7 +8956,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -8988,22 +8976,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>95526599</v>
+        <v>95525711</v>
       </c>
       <c r="B76" t="n">
-        <v>76909</v>
+        <v>95525</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9012,38 +9000,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6437</v>
+        <v>221941</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>731049.692677488</v>
+        <v>731071.190991634</v>
       </c>
       <c r="R76" t="n">
-        <v>7377312.904949927</v>
+        <v>7377359.321373643</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9100,22 +9088,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>95525725</v>
+        <v>95526599</v>
       </c>
       <c r="B77" t="n">
-        <v>81236</v>
+        <v>76909</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9128,34 +9116,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1312</v>
+        <v>6437</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>731102.6278793053</v>
+        <v>731049.692677488</v>
       </c>
       <c r="R77" t="n">
-        <v>7377329.770242247</v>
+        <v>7377312.904949927</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>
@@ -9212,22 +9200,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>95526542</v>
+        <v>95524696</v>
       </c>
       <c r="B78" t="n">
-        <v>5135</v>
+        <v>73693</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9236,47 +9224,38 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>105930</v>
+        <v>6440</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>731122.0068365773</v>
+        <v>731253.6267716239</v>
       </c>
       <c r="R78" t="n">
-        <v>7377300.020414264</v>
+        <v>7377338.711873068</v>
       </c>
       <c r="S78" t="n">
         <v>20</v>
@@ -9303,7 +9282,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9313,7 +9292,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9327,29 +9306,28 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>95526591</v>
+        <v>95524877</v>
       </c>
       <c r="B79" t="n">
-        <v>76486</v>
+        <v>77588</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9362,37 +9340,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6487</v>
+        <v>864</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>731095.5654570702</v>
+        <v>731245.6466144189</v>
       </c>
       <c r="R79" t="n">
-        <v>7377327.574721696</v>
+        <v>7377405.594547593</v>
       </c>
       <c r="S79" t="n">
         <v>20</v>
@@ -9419,7 +9394,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -9429,7 +9404,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -9443,29 +9418,28 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>95524725</v>
+        <v>95525701</v>
       </c>
       <c r="B80" t="n">
-        <v>101680</v>
+        <v>89557</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9474,38 +9448,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>222412</v>
+        <v>1588</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>731344.4368176023</v>
+        <v>731129.1372095407</v>
       </c>
       <c r="R80" t="n">
-        <v>7377185.839129029</v>
+        <v>7377436.912044343</v>
       </c>
       <c r="S80" t="n">
         <v>20</v>
@@ -9532,7 +9506,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
@@ -9542,7 +9516,7 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
@@ -9562,22 +9536,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>95524724</v>
+        <v>95526570</v>
       </c>
       <c r="B81" t="n">
-        <v>101680</v>
+        <v>77588</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9586,38 +9560,38 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>222412</v>
+        <v>864</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>731286.1589549112</v>
+        <v>731144.1917574101</v>
       </c>
       <c r="R81" t="n">
-        <v>7377117.055652067</v>
+        <v>7377299.45296608</v>
       </c>
       <c r="S81" t="n">
         <v>20</v>
@@ -9644,7 +9618,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -9654,7 +9628,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -9674,22 +9648,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>95524759</v>
+        <v>95526606</v>
       </c>
       <c r="B82" t="n">
-        <v>78503</v>
+        <v>101680</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9702,34 +9676,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6456</v>
+        <v>222412</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>731347.0751603107</v>
+        <v>731316.7804994041</v>
       </c>
       <c r="R82" t="n">
-        <v>7377221.844749237</v>
+        <v>7377150.565531123</v>
       </c>
       <c r="S82" t="n">
         <v>20</v>
@@ -9786,22 +9760,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>95524848</v>
+        <v>95524718</v>
       </c>
       <c r="B83" t="n">
-        <v>77588</v>
+        <v>56395</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9814,34 +9788,39 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>731306.8196960544</v>
+        <v>731310.4877543944</v>
       </c>
       <c r="R83" t="n">
-        <v>7377149.334471703</v>
+        <v>7377337.412717641</v>
       </c>
       <c r="S83" t="n">
         <v>20</v>
@@ -9910,10 +9889,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95525728</v>
+        <v>95524781</v>
       </c>
       <c r="B84" t="n">
-        <v>76504</v>
+        <v>95525</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9922,38 +9901,38 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>314</v>
+        <v>221941</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>731309.5573388296</v>
+        <v>731296.9594142459</v>
       </c>
       <c r="R84" t="n">
-        <v>7377179.317308596</v>
+        <v>7377316.183236159</v>
       </c>
       <c r="S84" t="n">
         <v>20</v>
@@ -10010,22 +9989,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>95526601</v>
+        <v>95525725</v>
       </c>
       <c r="B85" t="n">
-        <v>76504</v>
+        <v>81236</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10038,34 +10017,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>314</v>
+        <v>1312</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>731318.6815007103</v>
+        <v>731102.6278793053</v>
       </c>
       <c r="R85" t="n">
-        <v>7377161.580336118</v>
+        <v>7377329.770242247</v>
       </c>
       <c r="S85" t="n">
         <v>20</v>
@@ -10092,7 +10071,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10102,7 +10081,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10122,22 +10101,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Astrid Eklund</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>95525733</v>
+        <v>95525715</v>
       </c>
       <c r="B86" t="n">
-        <v>56542</v>
+        <v>95525</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10146,25 +10125,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>103022</v>
+        <v>221941</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lappmes</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Poecile cinctus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Boddaert, 1783)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10174,10 +10153,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>731305.526533796</v>
+        <v>731145.5816548612</v>
       </c>
       <c r="R86" t="n">
-        <v>7377179.383949534</v>
+        <v>7377263.381920612</v>
       </c>
       <c r="S86" t="n">
         <v>20</v>
@@ -10204,7 +10183,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -10214,7 +10193,7 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
@@ -10246,10 +10225,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>95524881</v>
+        <v>95526581</v>
       </c>
       <c r="B87" t="n">
-        <v>77588</v>
+        <v>81236</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10262,34 +10241,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>731294.631420763</v>
+        <v>731141.8978569109</v>
       </c>
       <c r="R87" t="n">
-        <v>7377170.033314993</v>
+        <v>7377317.355333193</v>
       </c>
       <c r="S87" t="n">
         <v>20</v>
@@ -10316,7 +10295,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10326,7 +10305,7 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
@@ -10346,22 +10325,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>95525738</v>
+        <v>95526542</v>
       </c>
       <c r="B88" t="n">
-        <v>81236</v>
+        <v>5135</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10370,38 +10349,47 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1312</v>
+        <v>105930</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>731309.5573388296</v>
+        <v>731122.0068365773</v>
       </c>
       <c r="R88" t="n">
-        <v>7377179.317308596</v>
+        <v>7377300.020414264</v>
       </c>
       <c r="S88" t="n">
         <v>20</v>
@@ -10428,7 +10416,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -10438,7 +10426,7 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
@@ -10452,28 +10440,29 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>95524933</v>
+        <v>95526589</v>
       </c>
       <c r="B89" t="n">
-        <v>5113</v>
+        <v>76486</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10482,43 +10471,41 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100526</v>
+        <v>6487</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Görjeån, O Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>731308.1177102538</v>
+        <v>731162.2166363262</v>
       </c>
       <c r="R89" t="n">
-        <v>7377143.411035416</v>
+        <v>7377450.518736145</v>
       </c>
       <c r="S89" t="n">
         <v>20</v>
@@ -10545,7 +10532,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -10555,7 +10542,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -10569,28 +10556,29 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Espen Quinto-Ashman, Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Wanyi Ji, Iris Elmér, Linnea Backman, Flynn Smedman, Ida Aronsen, Frank Pollari-Karlsson</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>95525740</v>
+        <v>95521891</v>
       </c>
       <c r="B90" t="n">
-        <v>77177</v>
+        <v>76486</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10603,34 +10591,37 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>353</v>
+        <v>6487</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>731262.9310629906</v>
+        <v>731095.7841368329</v>
       </c>
       <c r="R90" t="n">
-        <v>7377231.729645336</v>
+        <v>7377397.551511872</v>
       </c>
       <c r="S90" t="n">
         <v>20</v>
@@ -10657,7 +10648,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -10667,7 +10658,7 @@
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
@@ -10681,28 +10672,29 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
+      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Espen Quinto-Ashman</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Espen Quinto-Ashman, Amanda Helander, Astrid Eklund, Elin Lönnberg, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>95525734</v>
+        <v>95526591</v>
       </c>
       <c r="B91" t="n">
-        <v>77588</v>
+        <v>76486</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10715,34 +10707,37 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>864</v>
+        <v>6487</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>731253.7563546489</v>
+        <v>731095.5654570702</v>
       </c>
       <c r="R91" t="n">
-        <v>7377167.838395521</v>
+        <v>7377327.574721696</v>
       </c>
       <c r="S91" t="n">
         <v>20</v>
@@ -10769,7 +10764,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -10779,7 +10774,7 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
@@ -10793,28 +10788,29 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Astrid Eklund</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Astrid Eklund, Amanda Helander, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Karl Soler Kinnerbäck, Linnea Backman, Tore Dahlberg, Wanyi Ji</t>
+          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>95526606</v>
+        <v>96409774</v>
       </c>
       <c r="B92" t="n">
-        <v>101680</v>
+        <v>89545</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10823,41 +10819,52 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>222412</v>
+        <v>1503</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skravelstjärnen, Lu lm</t>
+          <t>Görjeån, Ö skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>731316.7804994041</v>
+        <v>731282.6556903012</v>
       </c>
       <c r="R92" t="n">
-        <v>7377150.565531123</v>
+        <v>7377251.062608211</v>
       </c>
       <c r="S92" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -10904,6 +10911,11 @@
       </c>
       <c r="AE92" t="b">
         <v>0</v>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
       </c>
       <c r="AG92" t="b">
         <v>0</v>
@@ -10916,17 +10928,17 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Amanda Helander, Astrid Eklund, Elin Lönnberg, Espen Quinto-Ashman, Flynn Smedman, Frank Pollari-Karlsson, Ida Aronsen, Iris Elmér, Wanyi Ji, Tore Dahlberg, Linnea Backman</t>
+          <t>Karl Soler Kinnerbäck, Tore Dahlberg, Astrid Eklund, Iris Elmér, Ida Aronsen, Frank Pollari-Karlsson, Linnea Backman, Wanyi Ji, Amanda Helander, Flynn Smedman, Espen Quinto-Ashman, Elin Lönnberg</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>96409774</v>
+        <v>96409760</v>
       </c>
       <c r="B93" t="n">
-        <v>89545</v>
+        <v>73698</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10935,52 +10947,44 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1503</v>
+        <v>1467</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Görjeån, Ö skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>731282.6556903012</v>
+        <v>731325.2836060632</v>
       </c>
       <c r="R93" t="n">
-        <v>7377251.062608211</v>
+        <v>7377193.493076357</v>
       </c>
       <c r="S93" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -11028,11 +11032,7 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
-      <c r="AF93" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11051,10 +11051,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>96409760</v>
+        <v>96965438</v>
       </c>
       <c r="B94" t="n">
-        <v>73698</v>
+        <v>76486</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11067,21 +11067,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1467</v>
+        <v>6487</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11090,17 +11090,17 @@
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Görjeån, Ö Skraveltjärnen, Lu lm</t>
+          <t>Görjeån, Lu lm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>731325.2836060632</v>
+        <v>731075.7633380449</v>
       </c>
       <c r="R94" t="n">
-        <v>7377193.493076357</v>
+        <v>7377391.46416633</v>
       </c>
       <c r="S94" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Tore Dahlberg, Astrid Eklund, Iris Elmér, Ida Aronsen, Frank Pollari-Karlsson, Linnea Backman, Wanyi Ji, Amanda Helander, Flynn Smedman, Espen Quinto-Ashman, Elin Lönnberg</t>
+          <t>Karl Soler Kinnerbäck, Tore Dahlberg, Iris Elmér, Linnea Backman, Astrid Eklund, Frank Pollari-Karlsson, Amanda Helander, Espen Quinto-Ashman, Elin Lönnberg, Flynn Smedman, Ida Aronsen, Wanyi Ji</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
